--- a/тест кейсы ДЗ.xlsx
+++ b/тест кейсы ДЗ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katerinka\Desktop\Обучение Тестировщик\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katerinka\Desktop\Обучение Тестировщик\First_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>passed</t>
   </si>
@@ -731,35 +731,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1156,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1201,7 +1201,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$42,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1246,7 +1246,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1373,43 +1373,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="45"/>
+      <c r="J6" s="52"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="50" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="50" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="44"/>
+      <c r="P6" s="50"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="44"/>
+      <c r="R6" s="50"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="44"/>
+      <c r="T6" s="50"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1419,9 +1419,9 @@
     </row>
     <row r="7" spans="1:124" ht="126.95" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="49"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="48"/>
-      <c r="D7" s="50"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="40" t="s">
         <v>16</v>
       </c>
@@ -1429,19 +1429,19 @@
         <v>17</v>
       </c>
       <c r="G7" s="48"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="46"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="44"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="44"/>
+      <c r="N7" s="50"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="44"/>
+      <c r="P7" s="50"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="44"/>
+      <c r="R7" s="50"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="44"/>
+      <c r="T7" s="50"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1471,7 +1471,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1507,7 +1509,9 @@
       <c r="I9" s="27"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1543,7 +1547,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -3161,12 +3167,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
@@ -3174,6 +3174,12 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="R6:R7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showErrorMessage="1" sqref="AT11 AH11 AF11 Z11 X11 V11 T11 R11 P11 N11 CJ11 CB11 DJ11:DT11 DH11 DF11 DD11 DB11 CZ11 CX11 CV11 CT11 CR11 CP11 CN11 CL11 CH11 CF11 BZ11 BX11 BV11 BT11 BR11 BP11 BN11 BL11 BJ11 BH11 BF11 BD11 BB11 AZ11 AX11 AV11 AR11 AP11 AN11 AL11 AJ11 AD11 AB11">
